--- a/InvoiceAutomation/Auxilliary Files/logs/Logs.xlsx
+++ b/InvoiceAutomation/Auxilliary Files/logs/Logs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauls\OneDrive\Documents\UiPath\EX 7  Invoice Automation\Auxilliary Files\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauls\OneDrive\Documents\UiPath\InvoiceAutomation\Auxilliary Files\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F243F8B-DD75-4033-A0FB-4814995783CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE66FC3-CE08-4B89-895B-31C47C630495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Invoice Number</t>
   </si>
   <si>
-    <t>inv 001</t>
-  </si>
-  <si>
-    <t>inv 002</t>
-  </si>
-  <si>
-    <t>inv 003</t>
-  </si>
-  <si>
     <t>inv</t>
   </si>
   <si>
@@ -61,13 +52,25 @@
   </si>
   <si>
     <t>003</t>
+  </si>
+  <si>
+    <t>customer X</t>
+  </si>
+  <si>
+    <t>customer Y</t>
+  </si>
+  <si>
+    <t>customer z</t>
+  </si>
+  <si>
+    <t>Validated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +84,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,13 +109,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +428,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,47 +441,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45302</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" s="5">
+        <v>36193</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45423</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="E3" s="5">
+        <v>63725</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45484</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="E4" s="5">
+        <v>28448</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
